--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1361" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{812590F6-C3A0-47DA-A788-30FDB81D1AA1}"/>
+  <xr:revisionPtr revIDLastSave="1395" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F6BD6E-FEC8-465D-A17F-B5318BB8F283}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1040">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -3694,12 +3694,6 @@
   </si>
   <si>
     <t>وهذ علشان يتكرر الفونكشن كل 5 ثواني</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  void initState() {
-    // TODO: implement initState
-    super.initState();
-  }</t>
   </si>
   <si>
     <t xml:space="preserve"> void initState() {
@@ -4750,9 +4744,6 @@
     <t>استخدام  api في الابلكيشن</t>
   </si>
   <si>
-    <t xml:space="preserve"> String datetime=receivedData["utc_datetime"];</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DateTime ad=DateTime.parse(datetime);</t>
   </si>
   <si>
@@ -4760,11 +4751,6 @@
   </si>
   <si>
     <t>int af=int.parse(offset);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فونكشن احضار الداته من الموقع الخارجي
-ثما حولناها من جيسون الى دارت
-</t>
   </si>
   <si>
     <t xml:space="preserve">getData()async{
@@ -4774,25 +4760,7 @@
    </t>
   </si>
   <si>
-    <t>ثما صنعنا فاريبول قيمته ماب الي تحول الجيسون
-وقمنا بتحويله الى استرنق واخترنا استرنق واحد
-ثما صنعنا فاريبول نوعه الوقت وخزنا في داخله
-دالة احضا الوقت من الفاريبول الي تحول الى استرنق</t>
-  </si>
-  <si>
-    <t>وبعد التحويل من جيسونالى استرنق اخترنا استرنق اخر من الداته الي جيت من الموقع الخارجي وبعدين
-اخترنا عدد الخانات الي في الاسترنق بعد التحويل الى 
-استرنق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">وبعدبن حولناها الى نمبر </t>
-  </si>
-  <si>
     <t>DateTime realTime=ad.add(Duration(hours: af));</t>
-  </si>
-  <si>
-    <t>سويت فاريبول نوعه وقت وقيمته زيادت الوقت
-ومقدار الزياده هو فاريبول التحويل الى نمبر</t>
   </si>
   <si>
     <t xml:space="preserve"> String timeNaw =DateFormat('hh:mm a').format(realTime);</t>
@@ -4805,43 +4773,183 @@
 من عناصر الي هي اسم الدولة</t>
   </si>
   <si>
-    <t xml:space="preserve"> Navigator.pushReplacementNamed(context, '/home', arguments: "السلام عليكم" );</t>
-  </si>
-  <si>
-    <t>وهذا الكود للنتقال من الصفحه الحالية الى صفحه 
-ثانيو ويحذف الصفحه الحالية
-وياخذ معاه فاريبول</t>
-  </si>
-  <si>
-    <t>class _HomeState extends State&lt;Home&gt; {
+    <t>Map receivedData =
+ ModalRoute.of(context)!.settings.arguments as Map;</t>
+  </si>
+  <si>
+    <t>Navigator.pushReplacementNamed(context, '/home', arguments: "السلام عليكم" );</t>
+  </si>
+  <si>
+    <t>هذا الكود مخصص للانتقال من صفحه لاخرا 
+ومسح الصفحه الي قبل وياخذ معه فاريبول</t>
+  </si>
+  <si>
+    <t>ولاستقبال الفاريبول الي جاي من صفحه أخرى 
+تحط فاريبول جديد وتط الكود ولاتنسى نوع الفاريبول</t>
+  </si>
+  <si>
+    <t>وداخل الكلاس  حق البرنامج تفتح فاريبول
+ وتحط فيه كود استقبال الداته في الصفحه الاتسقبال</t>
+  </si>
+  <si>
+    <t>الدرس 23.2</t>
+  </si>
+  <si>
+    <t>تنبة لابد من كتابة نوع الداتة المستقبله
+map او string</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class _HomeState extends State&lt;Home&gt; {
   @override
   Widget build(BuildContext context) {
-    String aa= ModalRoute.of(context)!.settings.arguments as String;</t>
-  </si>
-  <si>
-    <t>Map receivedData =
- ModalRoute.of(context)!.settings.arguments as Map;</t>
-  </si>
-  <si>
-    <t>Navigator.pushReplacementNamed(context, '/home', arguments: "السلام عليكم" );</t>
-  </si>
-  <si>
-    <t>هذا الكود مخصص للانتقال من صفحه لاخرا 
-ومسح الصفحه الي قبل وياخذ معه فاريبول</t>
-  </si>
-  <si>
-    <t>ولاستقبال الفاريبول الي جاي من صفحه أخرى 
-تحط فاريبول جديد وتط الكود ولاتنسى نوع الفاريبول</t>
-  </si>
-  <si>
-    <t>وداخل الكلاس  حق البرنامج تفتح فاريبول
- وتحط فيه كود استقبال الداته في الصفحه الاتسقبال</t>
-  </si>
-  <si>
-    <t>الدقيقة 14:59</t>
-  </si>
-  <si>
-    <t>الدرس 23.2</t>
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> aa= ModalRoute.of(context)!.settings.arguments as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  void initState() {
+    // TODO: implement initState
+    super.initState();
+هنا تكتب الكود
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getData()async{
+    Response response = await get(Uri.parse("http://worldtimeapi.org/api/timezone/Asia/Riyadh"));
+فونكشن احضار الماب  من الموقع الخارجي
+   Map receivedData = jsonDecode(response.body);
+ثما حولناها من جيسون الى دارت
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> String datetime=receivedData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["utc_datetime"];</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ثما صنعنا فاريبول قيمته ماب الي جاية من الموقع
+الخارجي ونوعه استرنق
+وحددة عنصر واحد من عناصر الماب الي في الموقع
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ثما صنعنا فاريبول نوعه الوقت وخزنا في داخله
+تحويل الاسترنق الى وقت وصار التحويل على 
+فاريبول (سطر 397)
+</t>
+  </si>
+  <si>
+    <t>وبعد التحويل من جيسون الى استرنق اخترنا عنصر اخر من الماب الي جيت من الموقع الخارجي وبعدين
+اخترنا عدد الخانات  في الاسترنق بعد التحويل الى 
+استرنق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وبعدبن الفاريبول (سطر 399) حولناها الى نمبر </t>
+  </si>
+  <si>
+    <t>سويت فاريبول نوعه وقت وقيمته زيادت الوقت
+ومقدار الزياده هو فاريبول(سطر 400) التحويل الى نمبر</t>
+  </si>
+  <si>
+    <t>فاريبول من نوع استرنق 
+قيمتة كود احضار الوقت من المكتبة بتنسيق معين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وهذا الكود للنتقال من الصفحه الحالية الى صفحه 
+ثاني و ويحذف الصفحه الحالية
+وياخذ معاه فاريبول او ماب </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Navigator.pushReplacementNamed(context, '/home', arguments: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>هنا تكتب الداله</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الدالة هي ماب او استرنق او نمبر</t>
+    </r>
+  </si>
+  <si>
+    <t>داخل لفونكشن getData()</t>
   </si>
 </sst>
 </file>
@@ -4981,7 +5089,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5021,6 +5129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5116,7 +5230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5238,37 +5352,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5307,8 +5418,14 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5643,10 +5760,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5742,11 +5859,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -5779,11 +5896,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -5810,10 +5927,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -5872,10 +5989,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="42"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -5910,10 +6027,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="42"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -5932,10 +6049,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="48"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5985,10 +6102,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="46"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -6065,11 +6182,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -6127,11 +6244,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="46"/>
-      <c r="C85" s="46"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -6177,11 +6294,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="46"/>
-      <c r="C92" s="46"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -6208,11 +6325,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="46" t="s">
+      <c r="A99" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="46"/>
-      <c r="C99" s="46"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -6279,10 +6396,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="46" t="s">
+      <c r="A108" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="46"/>
+      <c r="B108" s="41"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -6325,18 +6442,18 @@
     </row>
     <row r="113" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>1002</v>
-      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="46" t="s">
+      <c r="A115" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -6379,11 +6496,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="46"/>
-      <c r="C122" s="46"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -6426,11 +6543,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="46"/>
-      <c r="C129" s="46"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -6457,11 +6574,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -6504,11 +6621,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="46" t="s">
+      <c r="A141" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="46"/>
-      <c r="C141" s="46"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -6527,11 +6644,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="46" t="s">
+      <c r="A146" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="46"/>
-      <c r="C146" s="46"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -6567,11 +6684,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="49"/>
-      <c r="C153" s="49"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="44"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -6614,11 +6731,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="48" t="s">
+      <c r="A160" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="48"/>
-      <c r="C160" s="48"/>
+      <c r="B160" s="42"/>
+      <c r="C160" s="42"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -6653,11 +6770,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="48" t="s">
+      <c r="A166" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="48"/>
-      <c r="C166" s="48"/>
+      <c r="B166" s="42"/>
+      <c r="C166" s="42"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -6692,11 +6809,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="48" t="s">
+      <c r="A172" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="48"/>
-      <c r="C172" s="48"/>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -6739,11 +6856,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="46" t="s">
+      <c r="A179" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="46"/>
-      <c r="C179" s="46"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="41"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -6767,11 +6884,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="46" t="s">
+      <c r="A186" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="46"/>
-      <c r="C186" s="46"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="41"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -6825,11 +6942,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="49" t="s">
+      <c r="A194" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="49"/>
-      <c r="C194" s="49"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="44"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -6856,11 +6973,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="46" t="s">
+      <c r="A200" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="46"/>
-      <c r="C200" s="46"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="41"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -6895,11 +7012,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="46" t="s">
+      <c r="A206" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="46"/>
-      <c r="C206" s="46"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="41"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -6918,11 +7035,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="46" t="s">
+      <c r="A211" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="46"/>
-      <c r="C211" s="46"/>
+      <c r="B211" s="41"/>
+      <c r="C211" s="41"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -6968,7 +7085,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="41" t="s">
+      <c r="B217" s="48" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6976,7 +7093,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="41"/>
+      <c r="B218" s="48"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -7016,11 +7133,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="46" t="s">
+      <c r="A225" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="46"/>
-      <c r="C225" s="46"/>
+      <c r="B225" s="41"/>
+      <c r="C225" s="41"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -7095,11 +7212,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="48" t="s">
+      <c r="A237" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="48"/>
-      <c r="C237" s="48"/>
+      <c r="B237" s="42"/>
+      <c r="C237" s="42"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -7174,11 +7291,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="46" t="s">
+      <c r="A248" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="46"/>
-      <c r="C248" s="46"/>
+      <c r="B248" s="41"/>
+      <c r="C248" s="41"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -7197,11 +7314,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="46" t="s">
+      <c r="A253" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="46"/>
-      <c r="C253" s="46"/>
+      <c r="B253" s="41"/>
+      <c r="C253" s="41"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -7228,11 +7345,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="46" t="s">
+      <c r="A258" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="B258" s="46"/>
-      <c r="C258" s="46"/>
+      <c r="B258" s="41"/>
+      <c r="C258" s="41"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -7259,16 +7376,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="46" t="s">
+      <c r="A263" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="46"/>
+      <c r="B263" s="41"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="48" t="s">
+      <c r="A264" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="B264" s="48"/>
+      <c r="B264" s="42"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -7277,7 +7394,7 @@
       <c r="B265" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C265" s="41" t="s">
+      <c r="C265" s="48" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7288,7 +7405,7 @@
       <c r="B266" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C266" s="42"/>
+      <c r="C266" s="43"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -7297,7 +7414,7 @@
       <c r="B267" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C267" s="42"/>
+      <c r="C267" s="43"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -7308,11 +7425,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="43" t="s">
+      <c r="A270" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="44"/>
-      <c r="C270" s="45"/>
+      <c r="B270" s="49"/>
+      <c r="C270" s="47"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -7362,11 +7479,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="46" t="s">
+      <c r="A279" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="B279" s="46"/>
-      <c r="C279" s="46"/>
+      <c r="B279" s="41"/>
+      <c r="C279" s="41"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -7404,11 +7521,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="46" t="s">
+      <c r="A285" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="B285" s="46"/>
-      <c r="C285" s="46"/>
+      <c r="B285" s="41"/>
+      <c r="C285" s="41"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -7435,11 +7552,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="46" t="s">
+      <c r="A290" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="B290" s="46"/>
-      <c r="C290" s="46"/>
+      <c r="B290" s="41"/>
+      <c r="C290" s="41"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -7466,11 +7583,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="46" t="s">
+      <c r="A295" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="B295" s="46"/>
-      <c r="C295" s="46"/>
+      <c r="B295" s="41"/>
+      <c r="C295" s="41"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -7497,11 +7614,11 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="46" t="s">
+      <c r="A301" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="B301" s="46"/>
-      <c r="C301" s="46"/>
+      <c r="B301" s="41"/>
+      <c r="C301" s="41"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
@@ -7544,26 +7661,26 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="46" t="s">
-        <v>923</v>
-      </c>
-      <c r="B309" s="46"/>
-      <c r="C309" s="46"/>
+      <c r="A309" s="41" t="s">
+        <v>922</v>
+      </c>
+      <c r="B309" s="41"/>
+      <c r="C309" s="41"/>
     </row>
     <row r="310" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A310" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>924</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C311" s="12" t="s">
         <v>239</v>
@@ -7571,59 +7688,59 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>928</v>
-      </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="48" t="s">
-        <v>930</v>
-      </c>
-      <c r="B313" s="48"/>
-      <c r="C313" s="48"/>
+      <c r="A313" s="42" t="s">
+        <v>929</v>
+      </c>
+      <c r="B313" s="42"/>
+      <c r="C313" s="42"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>160</v>
@@ -7631,183 +7748,183 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B322" s="42" t="s">
-        <v>944</v>
+        <v>937</v>
+      </c>
+      <c r="B322" s="43" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="B323" s="42"/>
+        <v>938</v>
+      </c>
+      <c r="B323" s="43"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="B325" s="3" t="s">
-        <v>947</v>
-      </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="46" t="s">
-        <v>951</v>
-      </c>
-      <c r="B328" s="46"/>
-      <c r="C328" s="46"/>
+      <c r="A328" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="B328" s="41"/>
+      <c r="C328" s="41"/>
     </row>
     <row r="329" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>952</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="B330" s="41" t="s">
-        <v>956</v>
+        <v>953</v>
+      </c>
+      <c r="B330" s="48" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B331" s="42"/>
+        <v>954</v>
+      </c>
+      <c r="B331" s="43"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="140" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B335" s="22" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B336" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="C336" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="C336" s="3" t="s">
-        <v>964</v>
-      </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="46" t="s">
-        <v>997</v>
-      </c>
-      <c r="B337" s="46"/>
-      <c r="C337" s="46"/>
+      <c r="A337" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="B337" s="41"/>
+      <c r="C337" s="41"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B341" s="3" t="s">
         <v>994</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="46" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B345" s="46"/>
-      <c r="C345" s="46"/>
+      <c r="A345" s="41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B345" s="41"/>
+      <c r="C345" s="41"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>506</v>
@@ -7815,30 +7932,65 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
     <mergeCell ref="A345:C345"/>
     <mergeCell ref="A295:C295"/>
     <mergeCell ref="A225:C225"/>
@@ -7855,41 +8007,6 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A285:C285"/>
     <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="A301:C301"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -7909,8 +8026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
   <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7930,11 +8047,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -7992,7 +8109,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>305</v>
       </c>
@@ -8010,33 +8127,33 @@
     </row>
     <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
@@ -8090,11 +8207,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="52" t="s">
         <v>699</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
     </row>
     <row r="28" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -8178,7 +8295,7 @@
         <v>721</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -8216,11 +8333,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="53" t="s">
         <v>733</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
     </row>
     <row r="40" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
@@ -8229,7 +8346,7 @@
       <c r="B40" s="27" t="s">
         <v>737</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="56" t="s">
         <v>754</v>
       </c>
     </row>
@@ -8240,7 +8357,7 @@
       <c r="B41" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="57"/>
     </row>
     <row r="42" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
@@ -8249,7 +8366,7 @@
       <c r="B42" s="27" t="s">
         <v>739</v>
       </c>
-      <c r="C42" s="58"/>
+      <c r="C42" s="57"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
@@ -8310,10 +8427,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="54" t="s">
         <v>750</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="58" t="s">
         <v>760</v>
       </c>
       <c r="C49" s="30" t="s">
@@ -8321,12 +8438,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="54" t="s">
         <v>752</v>
       </c>
       <c r="B51" s="29" t="s">
@@ -8337,7 +8454,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="56"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="31" t="s">
         <v>751</v>
       </c>
@@ -8356,10 +8473,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="40" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>765</v>
@@ -8367,11 +8484,11 @@
       <c r="D54" s="34"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="60" t="s">
         <v>766</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="62"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
@@ -8554,11 +8671,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
@@ -8601,11 +8718,11 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="B84" s="46"/>
-      <c r="C84" s="46"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
     </row>
     <row r="85" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
@@ -8680,11 +8797,11 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="B95" s="46"/>
-      <c r="C95" s="46"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
     </row>
     <row r="96" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
@@ -8692,11 +8809,11 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="B98" s="46"/>
-      <c r="C98" s="46"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
     </row>
     <row r="99" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
@@ -8779,10 +8896,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="64" t="s">
+      <c r="A109" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="B109" s="64"/>
+      <c r="B109" s="50"/>
     </row>
     <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
@@ -8801,18 +8918,18 @@
       <c r="B112" s="3"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="44"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="51" t="s">
+      <c r="A114" s="63" t="s">
         <v>647</v>
       </c>
-      <c r="B114" s="51"/>
-      <c r="C114" s="51"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="63"/>
     </row>
     <row r="115" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
@@ -8827,11 +8944,11 @@
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="51" t="s">
+      <c r="A117" s="63" t="s">
         <v>648</v>
       </c>
-      <c r="B117" s="51"/>
-      <c r="C117" s="51"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="63"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
@@ -8854,11 +8971,11 @@
       <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="63" t="s">
         <v>650</v>
       </c>
-      <c r="B123" s="51"/>
-      <c r="C123" s="51"/>
+      <c r="B123" s="63"/>
+      <c r="C123" s="63"/>
     </row>
     <row r="124" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
@@ -8871,11 +8988,11 @@
       <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="51" t="s">
+      <c r="A126" s="63" t="s">
         <v>651</v>
       </c>
-      <c r="B126" s="51"/>
-      <c r="C126" s="51"/>
+      <c r="B126" s="63"/>
+      <c r="C126" s="63"/>
     </row>
     <row r="127" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
@@ -8939,11 +9056,11 @@
       <c r="B140" s="3"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="46" t="s">
+      <c r="A144" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="B144" s="46"/>
-      <c r="C144" s="46"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="41"/>
     </row>
     <row r="145" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
@@ -8954,24 +9071,24 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="46" t="s">
+      <c r="A148" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="B148" s="46"/>
-      <c r="C148" s="46"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="41"/>
     </row>
     <row r="149" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="41" t="s">
+      <c r="A149" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="B149" s="41"/>
+      <c r="B149" s="48"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="46" t="s">
+      <c r="A151" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="B151" s="46"/>
-      <c r="C151" s="46"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="41"/>
     </row>
     <row r="152" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
@@ -8998,11 +9115,11 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="48" t="s">
+      <c r="A156" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="B156" s="48"/>
-      <c r="C156" s="48"/>
+      <c r="B156" s="42"/>
+      <c r="C156" s="42"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
@@ -9021,11 +9138,11 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="48" t="s">
+      <c r="A161" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="B161" s="48"/>
-      <c r="C161" s="48"/>
+      <c r="B161" s="42"/>
+      <c r="C161" s="42"/>
     </row>
     <row r="162" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
@@ -9044,11 +9161,11 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="48" t="s">
+      <c r="A165" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="B165" s="48"/>
-      <c r="C165" s="48"/>
+      <c r="B165" s="42"/>
+      <c r="C165" s="42"/>
     </row>
     <row r="166" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
@@ -9067,11 +9184,11 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="48" t="s">
+      <c r="A170" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="B170" s="48"/>
-      <c r="C170" s="48"/>
+      <c r="B170" s="42"/>
+      <c r="C170" s="42"/>
     </row>
     <row r="171" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
@@ -9114,11 +9231,11 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="46" t="s">
+      <c r="A178" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="B178" s="46"/>
-      <c r="C178" s="46"/>
+      <c r="B178" s="41"/>
+      <c r="C178" s="41"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -9153,11 +9270,11 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="48" t="s">
+      <c r="A185" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="B185" s="48"/>
-      <c r="C185" s="48"/>
+      <c r="B185" s="42"/>
+      <c r="C185" s="42"/>
     </row>
     <row r="186" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
@@ -9176,11 +9293,11 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="46" t="s">
+      <c r="A189" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="B189" s="46"/>
-      <c r="C189" s="46"/>
+      <c r="B189" s="41"/>
+      <c r="C189" s="41"/>
     </row>
     <row r="190" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
@@ -9196,11 +9313,11 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="46" t="s">
+      <c r="A193" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="B193" s="46"/>
-      <c r="C193" s="46"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="41"/>
     </row>
     <row r="194" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
@@ -9241,11 +9358,11 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="48" t="s">
+      <c r="A199" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="B199" s="48"/>
-      <c r="C199" s="48"/>
+      <c r="B199" s="42"/>
+      <c r="C199" s="42"/>
     </row>
     <row r="200" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
@@ -9291,11 +9408,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="48" t="s">
+      <c r="A206" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="B206" s="48"/>
-      <c r="C206" s="48"/>
+      <c r="B206" s="42"/>
+      <c r="C206" s="42"/>
     </row>
     <row r="207" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
@@ -9330,11 +9447,11 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="46" t="s">
+      <c r="A213" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="B213" s="46"/>
-      <c r="C213" s="46"/>
+      <c r="B213" s="41"/>
+      <c r="C213" s="41"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
@@ -9380,11 +9497,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="48" t="s">
+      <c r="A220" s="42" t="s">
         <v>684</v>
       </c>
-      <c r="B220" s="48"/>
-      <c r="C220" s="48"/>
+      <c r="B220" s="42"/>
+      <c r="C220" s="42"/>
     </row>
     <row r="221" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A221" s="24" t="s">
@@ -9429,11 +9546,11 @@
       <c r="C226" s="19"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="46" t="s">
+      <c r="A229" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="B229" s="46"/>
-      <c r="C229" s="46"/>
+      <c r="B229" s="41"/>
+      <c r="C229" s="41"/>
     </row>
     <row r="230" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
@@ -9460,11 +9577,11 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="46" t="s">
+      <c r="A234" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="B234" s="46"/>
-      <c r="C234" s="46"/>
+      <c r="B234" s="41"/>
+      <c r="C234" s="41"/>
     </row>
     <row r="235" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
@@ -9507,11 +9624,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="46" t="s">
+      <c r="A241" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="B241" s="46"/>
-      <c r="C241" s="46"/>
+      <c r="B241" s="41"/>
+      <c r="C241" s="41"/>
     </row>
     <row r="242" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
@@ -9585,7 +9702,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>580</v>
       </c>
@@ -9594,11 +9711,11 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="48" t="s">
+      <c r="A252" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="B252" s="48"/>
-      <c r="C252" s="48"/>
+      <c r="B252" s="42"/>
+      <c r="C252" s="42"/>
     </row>
     <row r="253" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
@@ -9606,11 +9723,11 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="46" t="s">
+      <c r="A256" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="B256" s="46"/>
-      <c r="C256" s="46"/>
+      <c r="B256" s="41"/>
+      <c r="C256" s="41"/>
     </row>
     <row r="257" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
@@ -9644,7 +9761,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>607</v>
       </c>
@@ -9666,11 +9783,11 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="46" t="s">
+      <c r="A266" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="B266" s="46"/>
-      <c r="C266" s="46"/>
+      <c r="B266" s="41"/>
+      <c r="C266" s="41"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
@@ -9697,11 +9814,11 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="46" t="s">
+      <c r="A271" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="B271" s="46"/>
-      <c r="C271" s="46"/>
+      <c r="B271" s="41"/>
+      <c r="C271" s="41"/>
     </row>
     <row r="272" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
@@ -9752,11 +9869,11 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="46" t="s">
+      <c r="A279" s="41" t="s">
         <v>631</v>
       </c>
-      <c r="B279" s="46"/>
-      <c r="C279" s="46"/>
+      <c r="B279" s="41"/>
+      <c r="C279" s="41"/>
     </row>
     <row r="280" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
@@ -9805,11 +9922,11 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="46" t="s">
+      <c r="A288" s="41" t="s">
         <v>668</v>
       </c>
-      <c r="B288" s="46"/>
-      <c r="C288" s="46"/>
+      <c r="B288" s="41"/>
+      <c r="C288" s="41"/>
     </row>
     <row r="289" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
@@ -9861,17 +9978,17 @@
       </c>
     </row>
     <row r="294" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="41" t="s">
+      <c r="A294" s="48" t="s">
         <v>682</v>
       </c>
-      <c r="B294" s="42"/>
+      <c r="B294" s="43"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="46" t="s">
+      <c r="A296" s="41" t="s">
         <v>781</v>
       </c>
-      <c r="B296" s="46"/>
-      <c r="C296" s="46"/>
+      <c r="B296" s="41"/>
+      <c r="C296" s="41"/>
     </row>
     <row r="297" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A297" s="36" t="s">
@@ -9949,11 +10066,11 @@
       <c r="C305" s="3"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="48" t="s">
+      <c r="A307" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="B307" s="48"/>
-      <c r="C307" s="48"/>
+      <c r="B307" s="42"/>
+      <c r="C307" s="42"/>
     </row>
     <row r="308" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
@@ -9989,11 +10106,11 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="48" t="s">
+      <c r="A312" s="42" t="s">
         <v>812</v>
       </c>
-      <c r="B312" s="48"/>
-      <c r="C312" s="48"/>
+      <c r="B312" s="42"/>
+      <c r="C312" s="42"/>
     </row>
     <row r="313" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
@@ -10020,11 +10137,11 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="46" t="s">
+      <c r="A317" s="41" t="s">
         <v>819</v>
       </c>
-      <c r="B317" s="46"/>
-      <c r="C317" s="46"/>
+      <c r="B317" s="41"/>
+      <c r="C317" s="41"/>
     </row>
     <row r="318" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
@@ -10034,7 +10151,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>821</v>
       </c>
@@ -10043,11 +10160,11 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="48" t="s">
+      <c r="A321" s="42" t="s">
         <v>823</v>
       </c>
-      <c r="B321" s="48"/>
-      <c r="C321" s="48"/>
+      <c r="B321" s="42"/>
+      <c r="C321" s="42"/>
     </row>
     <row r="322" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A322" s="38" t="s">
@@ -10134,18 +10251,18 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="46" t="s">
+      <c r="A332" s="41" t="s">
         <v>848</v>
       </c>
-      <c r="B332" s="46"/>
-      <c r="C332" s="46"/>
+      <c r="B332" s="41"/>
+      <c r="C332" s="41"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>844</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="56" x14ac:dyDescent="0.3">
@@ -10172,15 +10289,15 @@
         <v>850</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="50" t="s">
+      <c r="A340" s="64" t="s">
         <v>849</v>
       </c>
-      <c r="B340" s="50"/>
-      <c r="C340" s="50"/>
+      <c r="B340" s="64"/>
+      <c r="C340" s="64"/>
     </row>
     <row r="341" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
@@ -10194,26 +10311,26 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="46" t="s">
+      <c r="A344" s="41" t="s">
         <v>856</v>
       </c>
-      <c r="B344" s="46"/>
-      <c r="C344" s="46"/>
+      <c r="B344" s="41"/>
+      <c r="C344" s="41"/>
     </row>
     <row r="345" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B345" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B346" s="3" t="s">
         <v>870</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -10221,459 +10338,463 @@
         <v>844</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="182" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>876</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="308" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B350" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="B350" s="3" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>858</v>
+        <v>1028</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B353" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="C353" s="3" t="s">
-        <v>865</v>
-      </c>
       <c r="D353" s="35" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="B354" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="48" t="s">
-        <v>880</v>
-      </c>
-      <c r="B356" s="48"/>
-      <c r="C356" s="48"/>
+      <c r="A356" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="B356" s="42"/>
+      <c r="C356" s="42"/>
     </row>
     <row r="357" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="196" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B359" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="112" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B361" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="C361" s="3" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B362" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="B362" s="3" t="s">
-        <v>890</v>
-      </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" s="48" t="s">
-        <v>895</v>
-      </c>
-      <c r="B363" s="48"/>
-      <c r="C363" s="48"/>
+      <c r="A363" s="42" t="s">
+        <v>894</v>
+      </c>
+      <c r="B363" s="42"/>
+      <c r="C363" s="42"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B366" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="C366" s="39" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="168" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="C366" s="39" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="182" x14ac:dyDescent="0.3">
-      <c r="A367" s="3" t="s">
+      <c r="B367" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>907</v>
-      </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="46" t="s">
-        <v>911</v>
-      </c>
-      <c r="B371" s="46"/>
-      <c r="C371" s="46"/>
+      <c r="A371" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="B371" s="41"/>
+      <c r="C371" s="41"/>
     </row>
     <row r="372" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="B372" s="3" t="s">
+    </row>
+    <row r="373" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" ht="126" x14ac:dyDescent="0.3">
-      <c r="A373" s="3" t="s">
+      <c r="B373" s="22" t="s">
         <v>914</v>
-      </c>
-      <c r="B373" s="22" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="B374" s="3" t="s">
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="42" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="48" t="s">
-        <v>918</v>
-      </c>
-      <c r="B375" s="48"/>
-      <c r="C375" s="48"/>
+      <c r="B375" s="42"/>
+      <c r="C375" s="42"/>
     </row>
     <row r="376" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="B376" s="3" t="s">
+    </row>
+    <row r="377" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" ht="140" x14ac:dyDescent="0.3">
-      <c r="A377" s="3" t="s">
+      <c r="B377" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="B377" s="3" t="s">
-        <v>922</v>
-      </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="46" t="s">
-        <v>974</v>
-      </c>
-      <c r="B379" s="46"/>
-      <c r="C379" s="46"/>
+      <c r="A379" s="41" t="s">
+        <v>973</v>
+      </c>
+      <c r="B379" s="41"/>
+      <c r="C379" s="41"/>
     </row>
     <row r="381" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B381" s="3" t="s">
         <v>965</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B382" s="1" t="s">
+    </row>
+    <row r="383" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" ht="140" x14ac:dyDescent="0.3">
-      <c r="A383" s="3" t="s">
+      <c r="B383" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="B383" s="3" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="196" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:3" ht="168" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="46" t="s">
-        <v>975</v>
-      </c>
-      <c r="B387" s="46"/>
-      <c r="C387" s="46"/>
+      <c r="A387" s="41" t="s">
+        <v>974</v>
+      </c>
+      <c r="B387" s="41"/>
+      <c r="C387" s="41"/>
     </row>
     <row r="388" spans="1:3" ht="168" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="B388" s="22" t="s">
         <v>976</v>
       </c>
-      <c r="B388" s="22" t="s">
-        <v>977</v>
-      </c>
       <c r="C388" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="B389" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="B389" s="3" t="s">
-        <v>979</v>
-      </c>
       <c r="C389" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B390" s="3" t="s">
         <v>982</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B393" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="B393" s="3" t="s">
-        <v>989</v>
-      </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="46" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B395" s="46"/>
-      <c r="C395" s="46"/>
-    </row>
-    <row r="396" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+      <c r="A395" s="41" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B395" s="41"/>
+      <c r="C395" s="41"/>
+    </row>
+    <row r="396" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1017</v>
+        <v>1029</v>
+      </c>
+      <c r="C396" s="65" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B397" s="41" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1030</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C397" s="65"/>
+    </row>
+    <row r="398" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B398" s="41"/>
+        <v>1012</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C398" s="65"/>
     </row>
     <row r="399" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1020</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="C399" s="65"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C400" s="65"/>
+    </row>
+    <row r="401" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
-        <v>1022</v>
-      </c>
       <c r="B401" s="3" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1035</v>
+      </c>
+      <c r="C401" s="65"/>
+    </row>
+    <row r="402" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C402" s="65"/>
+    </row>
+    <row r="403" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C403" s="65"/>
+    </row>
+    <row r="404" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C404" s="65"/>
+    </row>
+    <row r="405" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+      <c r="C405" s="12" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B409" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A404" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="56" x14ac:dyDescent="0.3">
-      <c r="A405" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>1036</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="C396:C404"/>
     <mergeCell ref="A117:C117"/>
     <mergeCell ref="A271:C271"/>
     <mergeCell ref="A156:C156"/>
@@ -10690,23 +10811,35 @@
     <mergeCell ref="A193:C193"/>
     <mergeCell ref="A256:C256"/>
     <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A114:C114"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A357" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>
